--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F8B1C4-6D56-4CD0-858D-0E6CDC9C8B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF952177-6F03-4FB3-ADA7-BD3C8688CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Reference No</t>
   </si>
@@ -44,10 +43,13 @@
     <t>Notes to Carrier</t>
   </si>
   <si>
-    <t>Needs Delivery Note ?</t>
-  </si>
-  <si>
-    <t>Has Attchment ?</t>
+    <t>Needs Delivery Note ?*</t>
+  </si>
+  <si>
+    <t>Has Attchment ?*</t>
+  </si>
+  <si>
+    <t>10/21/2021</t>
   </si>
   <si>
     <t>nooooooootes</t>
@@ -57,6 +59,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>10/22/2021</t>
   </si>
   <si>
     <t>llklk</t>
@@ -415,7 +420,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,49 +461,50 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44504</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44511</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2">
         <v>1120</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44505</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44511</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G3" xr:uid="{4F7ED7D3-4007-4D1B-A8E7-78CC1C92CE52}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF952177-6F03-4FB3-ADA7-BD3C8688CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E459C66-6F13-448B-A1A9-3E8DBE0D101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Reference No</t>
   </si>
@@ -49,7 +50,10 @@
     <t>Has Attchment ?*</t>
   </si>
   <si>
-    <t>10/21/2021</t>
+    <t>Original Facility*</t>
+  </si>
+  <si>
+    <t>Destination Facility*</t>
   </si>
   <si>
     <t>nooooooootes</t>
@@ -61,10 +65,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>10/22/2021</t>
-  </si>
-  <si>
-    <t>llklk</t>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
   </si>
 </sst>
 </file>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,10 +435,11 @@
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,48 +461,43 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44639</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2">
         <v>1120</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E459C66-6F13-448B-A1A9-3E8DBE0D101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1827F6FB-3E46-41F9-A655-6415F6743364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Needs Delivery Note ?*</t>
   </si>
   <si>
-    <t>Has Attchment ?*</t>
+    <t>Has Attachment ?*</t>
   </si>
   <si>
     <t>Original Facility*</t>
@@ -424,7 +424,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1827F6FB-3E46-41F9-A655-6415F6743364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24A5C49-0739-402E-BBC8-6E814778C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Reference No</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Destination Facility*</t>
+  </si>
+  <si>
+    <t>03/19/2022</t>
   </si>
   <si>
     <t>nooooooootes</t>
@@ -75,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -104,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +431,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,29 +477,29 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44639</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2">
         <v>1120</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24A5C49-0739-402E-BBC8-6E814778C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tachyon_13062022\tachyon-core\angular\src\assets\sampleFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919FDD8-1394-4357-863E-7BE176DC466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -32,12 +35,6 @@
     <t>Reference No</t>
   </si>
   <si>
-    <t>Trip Pick up Date Start *</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End</t>
-  </si>
-  <si>
     <t>Approximate Total Value of Goods</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Destination Facility*</t>
   </si>
   <si>
-    <t>03/19/2022</t>
-  </si>
-  <si>
     <t>nooooooootes</t>
   </si>
   <si>
@@ -68,20 +62,26 @@
     <t>no</t>
   </si>
   <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
+    <t>Trip Pick up Date Start MM/dd/YYYY (Text Format) *</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date End  MM/dd/YYYY (Text Format) *</t>
+  </si>
+  <si>
+    <t>2022/06/29</t>
+  </si>
+  <si>
+    <t>pickup 3</t>
+  </si>
+  <si>
+    <t>drop 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
-  </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +113,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,69 +431,69 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2">
         <v>1120</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -502,8 +502,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
     </row>
   </sheetData>
@@ -513,5 +513,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24A5C49-0739-402E-BBC8-6E814778C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1DD548-987B-44A6-BEFE-FEAC3311BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,60 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Reference No</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date Start *</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End</t>
-  </si>
-  <si>
-    <t>Approximate Total Value of Goods</t>
-  </si>
-  <si>
-    <t>Notes to Carrier</t>
-  </si>
-  <si>
-    <t>Needs Delivery Note ?*</t>
-  </si>
-  <si>
-    <t>Has Attachment ?*</t>
-  </si>
-  <si>
-    <t>Original Facility*</t>
-  </si>
-  <si>
-    <t>Destination Facility*</t>
-  </si>
-  <si>
-    <t>03/19/2022</t>
-  </si>
-  <si>
-    <t>nooooooootes</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Reference No *     رقم الرحلة </t>
+  </si>
+  <si>
+    <t>Trip Pick up Date Start MM/dd/yyyy (Text Format)   تاريخ بداية الرحلة</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date End MM/dd/yyyy (Text Format)   تاريخ نهاية الرحلة</t>
+  </si>
+  <si>
+    <t>Approximate Total Value of Goods  اجمالي البضائع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes to Carrier  ملاحظات الناقل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs Delivery Note ?    ملاحظات تسليم ؟ </t>
+  </si>
+  <si>
+    <t>Has Attchment ?   يوجد مرفقات ؟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]m/d/yyyy;@"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -110,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,25 +400,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,47 +439,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2">
-        <v>1120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G3" xr:uid="{4F7ED7D3-4007-4D1B-A8E7-78CC1C92CE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 G1:G1048576" xr:uid="{257BF862-3E94-4AC6-B47D-A694F52ACF1E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1DD548-987B-44A6-BEFE-FEAC3311BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D88B3A2-DB39-403B-B6CB-083828B5D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D88B3A2-DB39-403B-B6CB-083828B5D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7D88B3A2-DB39-403B-B6CB-083828B5D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9322C1B5-80BF-45A5-9514-5F53064C05C2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Reference No *     رقم الرحلة </t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Has Attchment ?   يوجد مرفقات ؟</t>
+  </si>
+  <si>
+    <t>Pickup Facility  منطقة الانطلاق</t>
+  </si>
+  <si>
+    <t>Drop off Facility   منطقة الوصول</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,9 +421,11 @@
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="53.7109375" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,12 +447,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{7D88B3A2-DB39-403B-B6CB-083828B5D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9322C1B5-80BF-45A5-9514-5F53064C05C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB4E5D-D78F-4167-B41A-1DCB5B534C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,10 @@
     <t xml:space="preserve">Reference No *     رقم الرحلة </t>
   </si>
   <si>
-    <t>Trip Pick up Date Start MM/dd/yyyy (Text Format)   تاريخ بداية الرحلة</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End MM/dd/yyyy (Text Format)   تاريخ نهاية الرحلة</t>
+    <t>Trip Pick up Date Start yyyy/MM/dd (Text Format)   تاريخ بداية الرحلة</t>
+  </si>
+  <si>
+    <t>Trip Pick up Date End yyyy/MM/dd (Text Format)   تاريخ نهاية الرحلة</t>
   </si>
   <si>
     <t>Approximate Total Value of Goods  اجمالي البضائع</t>
@@ -50,10 +50,10 @@
     <t>Has Attchment ?   يوجد مرفقات ؟</t>
   </si>
   <si>
-    <t>Pickup Facility  منطقة الانطلاق</t>
-  </si>
-  <si>
-    <t>Drop off Facility   منطقة الوصول</t>
+    <t>Pickup Facility*  منطقة الانطلاق</t>
+  </si>
+  <si>
+    <t>Drop off Facility*   منطقة الوصول</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,33 +406,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="53.7109375" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -453,14 +452,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportShipmentSampleFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAB4E5D-D78F-4167-B41A-1DCB5B534C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D202ADF6-90BE-4D74-96CF-727FBF9BF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,40 +29,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Reference No *     رقم الرحلة </t>
-  </si>
-  <si>
-    <t>Trip Pick up Date Start yyyy/MM/dd (Text Format)   تاريخ بداية الرحلة</t>
-  </si>
-  <si>
-    <t>Trip Pick up Date End yyyy/MM/dd (Text Format)   تاريخ نهاية الرحلة</t>
-  </si>
-  <si>
-    <t>Approximate Total Value of Goods  اجمالي البضائع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes to Carrier  ملاحظات الناقل </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs Delivery Note ?    ملاحظات تسليم ؟ </t>
-  </si>
-  <si>
-    <t>Has Attchment ?   يوجد مرفقات ؟</t>
-  </si>
-  <si>
-    <t>Pickup Facility*  منطقة الانطلاق</t>
-  </si>
-  <si>
-    <t>Drop off Facility*   منطقة الوصول</t>
+    <t>Trip Reference No *  
+الرقم المرجعي للرحلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date start  (yyyy/MM/dd)
+تاريخ بداية التحميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date end  (yyyy/MM/dd)
+تاريخ نهاية التحميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximate total value of goods
+القيمة التقريبة للبضاعة </t>
+  </si>
+  <si>
+    <t>Shipper notes
+ملاحظات الشاحن</t>
+  </si>
+  <si>
+    <t>Needs delivery note?
+بحاجة إلى مذكرة تسليم؟</t>
+  </si>
+  <si>
+    <t>Has attachment?
+هل يوجد مرفقات ؟</t>
+  </si>
+  <si>
+    <t>Pick-up facility*
+منشأة التحميل</t>
+  </si>
+  <si>
+    <t>Drop-off facility*
+منشأة التنزيل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +113,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,38 +475,156 @@
     <col min="8" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="25.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="11.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" s="4" customFormat="1" ht="11.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 G1:G1048576" xr:uid="{257BF862-3E94-4AC6-B47D-A694F52ACF1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{257BF862-3E94-4AC6-B47D-A694F52ACF1E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
